--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO212121.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO212121.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CDD11-FD74-442C-9B7E-1F0AD364631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4EF83-9D7C-4555-80B9-C1FE11B55C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{CCDC8DE4-C081-43CB-A8B6-310769D65787}"/>
   </bookViews>
@@ -25,30 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
   <si>
     <t>Beverages and Catering</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Professional Services</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>IT Support</t>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
   <si>
     <t>RON</t>
-  </si>
-  <si>
-    <t>Concierge Services</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC8E9B2-75F7-42C7-998F-BE490984C007}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,186 +412,232 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>263011</v>
+        <v>135807</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>290070</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42754</v>
       </c>
       <c r="D1">
-        <v>58014</v>
+        <v>7755</v>
       </c>
       <c r="E1">
-        <v>348084</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42776</v>
+        <v>1551</v>
+      </c>
+      <c r="F1">
+        <v>9306</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>609078</v>
+        <v>885025</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>80133</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42785</v>
       </c>
       <c r="D2">
-        <v>16026.6</v>
+        <v>3575</v>
       </c>
       <c r="E2">
-        <v>96159.6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42815</v>
+        <v>715</v>
+      </c>
+      <c r="F2">
+        <v>4290</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>457803</v>
+        <v>628975</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>198323</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42768</v>
       </c>
       <c r="D3">
-        <v>39664.6</v>
+        <v>231656</v>
       </c>
       <c r="E3">
-        <v>237988</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42828</v>
+        <v>46331.199999999997</v>
+      </c>
+      <c r="F3">
+        <v>277987</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>458034</v>
+        <v>862135</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>156282</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42841</v>
       </c>
       <c r="D4">
-        <v>31256.400000000001</v>
+        <v>124316</v>
       </c>
       <c r="E4">
-        <v>187538</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42901</v>
+        <v>24863.200000000001</v>
+      </c>
+      <c r="F4">
+        <v>149179</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>149750</v>
+        <v>478548</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42841</v>
+      </c>
+      <c r="D5">
+        <v>234822</v>
+      </c>
+      <c r="E5">
+        <v>46964.4</v>
+      </c>
+      <c r="F5">
+        <v>281786</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C5">
-        <v>29589</v>
-      </c>
-      <c r="D5">
-        <v>5917.8</v>
-      </c>
-      <c r="E5">
-        <v>35506.800000000003</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42944</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>832084</v>
+        <v>497305</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>187843</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42871</v>
       </c>
       <c r="D6">
-        <v>37568.6</v>
+        <v>139001</v>
       </c>
       <c r="E6">
-        <v>225412</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42936</v>
+        <v>27800.2</v>
+      </c>
+      <c r="F6">
+        <v>166801</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>567245</v>
+        <v>615938</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>169833</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42974</v>
       </c>
       <c r="D7">
-        <v>33966.6</v>
+        <v>12738</v>
       </c>
       <c r="E7">
-        <v>203800</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>42955</v>
+        <v>2547.6</v>
+      </c>
+      <c r="F7">
+        <v>15285.6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>364156</v>
+        <v>429114</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42997</v>
+      </c>
+      <c r="D8">
+        <v>259766</v>
+      </c>
+      <c r="E8">
+        <v>51953.2</v>
+      </c>
+      <c r="F8">
+        <v>311719</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>604695</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43018</v>
+      </c>
+      <c r="D9">
+        <v>289063</v>
+      </c>
+      <c r="E9">
+        <v>57812.6</v>
+      </c>
+      <c r="F9">
+        <v>346876</v>
+      </c>
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>140126</v>
-      </c>
-      <c r="D8">
-        <v>28025.200000000001</v>
-      </c>
-      <c r="E8">
-        <v>168151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>43097</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>937473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43029</v>
+      </c>
+      <c r="D10">
+        <v>147249</v>
+      </c>
+      <c r="E10">
+        <v>29449.8</v>
+      </c>
+      <c r="F10">
+        <v>176699</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
